--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B676E-8E15-48D7-95F2-7D20D0A8FE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F90BB1-5B88-44C7-803A-A451FD38BFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -676,6 +676,13 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　物理挙動</t>
+    <rPh sb="3" eb="7">
+      <t>ブツリキョドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -842,6 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1122,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1163,8 +1171,8 @@
         <v>34</v>
       </c>
       <c r="H2">
-        <f>SUM(C3:C82)</f>
-        <v>152</v>
+        <f>SUM(C3:C83)</f>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1182,8 +1190,8 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <f>SUMIF(E3:E82,"完了",C3:C82)</f>
-        <v>28</v>
+        <f>SUMIF(E3:E83,"完了",C3:C83)</f>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1210,22 +1218,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.6470588235294117</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.2727272727272727</v>
+        <v>1.3043478260869565</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1261,7 +1269,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45587</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1364,11 +1372,11 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>2.8181818181818183</v>
+        <v>2.8837209302325579</v>
       </c>
       <c r="K13">
         <f>_xlfn.DAYS(H13,$H$5)</f>
@@ -1401,11 +1409,11 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>1.9375</v>
+        <v>1.9682539682539681</v>
       </c>
       <c r="K14">
         <f>_xlfn.DAYS(H14,$H$5)</f>
@@ -1438,11 +1446,11 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.6533333333333333</v>
+        <v>1.6756756756756757</v>
       </c>
       <c r="K15">
         <f>_xlfn.DAYS(H15,$H$5)</f>
@@ -1466,6 +1474,11 @@
       <c r="E16" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="9" t="s">
@@ -1481,68 +1494,70 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="9" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C21" s="9">
         <v>0.5</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="11" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C22" s="11">
         <v>4</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C23" s="9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
@@ -1551,10 +1566,10 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="9" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -1563,10 +1578,10 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
@@ -1575,10 +1590,10 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C26" s="9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
@@ -1586,47 +1601,47 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C28" s="11">
         <v>4</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="9" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C29" s="9">
         <v>2</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="11">
-        <v>4</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="11" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C30" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
@@ -1635,10 +1650,10 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C31" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
@@ -1646,20 +1661,20 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="B32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="11">
+        <v>8</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="9" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C33" s="9">
         <v>0.5</v>
@@ -1671,10 +1686,10 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C34" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
@@ -1682,60 +1697,60 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C36" s="11">
         <v>4</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="10" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C38" s="12">
         <v>20</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="10" t="s">
+      <c r="D38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="9">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
@@ -1747,7 +1762,7 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
@@ -1758,30 +1773,28 @@
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
@@ -1795,7 +1808,7 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="10">
         <v>1</v>
@@ -1808,138 +1821,140 @@
       </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C47" s="9">
         <v>0.5</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C49" s="10">
         <v>6</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="10">
         <v>6</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="10">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="2:5">
+      <c r="B50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="9">
-        <v>1</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="10">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10">
-        <v>1</v>
-      </c>
-      <c r="E51" s="10" t="s">
+      <c r="C52" s="10">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="9" t="s">
+    <row r="53" spans="2:5">
+      <c r="B53" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C53" s="9">
         <v>2</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="9">
-        <v>1</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:5">
       <c r="B54" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="10" t="s">
+    <row r="55" spans="2:5">
+      <c r="B55" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="9" t="s">
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C56" s="9">
-        <v>1</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="C57" s="9">
         <v>1</v>
@@ -1949,9 +1964,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:5">
       <c r="B58" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="9">
         <v>1</v>
@@ -1961,9 +1976,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:5">
       <c r="B59" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="9">
         <v>1</v>
@@ -1973,29 +1988,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="10" t="s">
+    <row r="60" spans="2:5">
+      <c r="B60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C61" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="C62" s="9">
         <v>0.5</v>
@@ -2005,9 +2020,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:5">
       <c r="B63" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="9">
         <v>0.5</v>
@@ -2017,44 +2032,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:5">
       <c r="B64" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="9">
+        <v>2</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" s="9">
         <v>0.5</v>
@@ -2067,22 +2081,23 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
@@ -2091,7 +2106,7 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="9">
         <v>2</v>
@@ -2102,28 +2117,28 @@
       </c>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="9">
+        <v>2</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="9">
-        <v>1</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="9">
         <v>1</v>
@@ -2135,7 +2150,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" s="9">
         <v>1</v>
@@ -2146,52 +2161,52 @@
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C76" s="13">
         <v>4</v>
       </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="11" t="s">
+      <c r="D76" s="13"/>
+      <c r="E76" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C77" s="11">
         <v>4</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="10" t="s">
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="9">
-        <v>1</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="9">
         <v>1</v>
@@ -2202,32 +2217,32 @@
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="9">
+        <v>1</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C81" s="11">
         <v>4</v>
       </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="9">
-        <v>2</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C82" s="9">
         <v>2</v>
@@ -2238,7 +2253,16 @@
       </c>
     </row>
     <row r="83" spans="2:5">
-      <c r="D83" s="2"/>
+      <c r="B83" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="9">
+        <v>2</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="2:5">
       <c r="D84" s="2"/>
@@ -2248,6 +2272,9 @@
     </row>
     <row r="86" spans="2:5">
       <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="D87" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F90BB1-5B88-44C7-803A-A451FD38BFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755897E3-F2C4-4A14-ACF3-805A4F09DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -824,11 +824,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -849,7 +871,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1132,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1172,7 +1195,7 @@
       </c>
       <c r="H2">
         <f>SUM(C3:C83)</f>
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1191,7 +1214,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(E3:E83,"完了",C3:C83)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1218,22 +1241,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.6666666666666667</v>
+        <v>1.4761904761904763</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.3043478260869565</v>
+        <v>1.1071428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1269,7 +1292,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45588</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1372,19 +1395,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>2.8837209302325579</v>
+        <v>3.125</v>
       </c>
       <c r="K13">
-        <f>_xlfn.DAYS(H13,$H$5)</f>
-        <v>81</v>
+        <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
+        <v>53</v>
       </c>
       <c r="L13" s="4">
-        <f>($H$2 - $H$3) / K13</f>
-        <v>1.5308641975308641</v>
+        <f ca="1">($H$2 - $H$3) / K13</f>
+        <v>2.358490566037736</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1409,19 +1432,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>1.9682539682539681</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K14">
-        <f>_xlfn.DAYS(H14,$H$5)</f>
-        <v>109</v>
+        <f t="shared" ref="K14:K15" ca="1" si="1">_xlfn.DAYS(H14,$H$6)</f>
+        <v>81</v>
       </c>
       <c r="L14" s="4">
-        <f>($H$2 - $H$3) / K14</f>
-        <v>1.1376146788990826</v>
+        <f ca="1">($H$2 - $H$3) / K14</f>
+        <v>1.5432098765432098</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1437,7 +1460,7 @@
       <c r="E15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="20" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="1">
@@ -1446,19 +1469,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.6756756756756757</v>
+        <v>1.7605633802816902</v>
       </c>
       <c r="K15">
-        <f>_xlfn.DAYS(H15,$H$5)</f>
-        <v>126</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
       </c>
       <c r="L15" s="4">
-        <f>($H$2 - $H$3) / K15</f>
-        <v>0.98412698412698407</v>
+        <f ca="1">($H$2 - $H$3) / K15</f>
+        <v>1.2755102040816326</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1474,7 +1497,7 @@
       <c r="E16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="1"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4"/>
@@ -1529,15 +1552,15 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>0.5</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>3</v>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1835,15 +1858,17 @@
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="10">
         <v>0.5</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>3</v>
+      <c r="D47" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -2189,7 +2214,7 @@
         <v>22</v>
       </c>
       <c r="C77" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755897E3-F2C4-4A14-ACF3-805A4F09DB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D596550-2D06-4969-AD21-220B25DDF0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.4761904761904763</v>
+        <v>1.4090909090909092</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.1071428571428572</v>
+        <v>1.0689655172413792</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45593</v>
+        <v>45594</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1395,19 +1395,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.125</v>
+        <v>3.2051282051282053</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.358490566037736</v>
+        <v>2.4038461538461537</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1432,19 +1432,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.0833333333333335</v>
+        <v>2.1186440677966103</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K15" ca="1" si="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.5432098765432098</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.7605633802816902</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.2755102040816326</v>
+        <v>1.2886597938144331</v>
       </c>
     </row>
     <row r="16" spans="1:12">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D596550-2D06-4969-AD21-220B25DDF0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D14B6F-83F1-4F99-A63B-7E508B0E251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(E3:E83,"完了",C3:C83)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.4090909090909092</v>
+        <v>1.5217391304347827</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.0689655172413792</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45594</v>
+        <v>45595</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1395,19 +1395,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.2051282051282053</v>
+        <v>3.1842105263157894</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.4038461538461537</v>
+        <v>2.3725490196078431</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1432,19 +1432,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.1186440677966103</v>
+        <v>2.0862068965517242</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K15" ca="1" si="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.5625</v>
+        <v>1.5316455696202531</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.7857142857142858</v>
+        <v>1.7536231884057971</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.2886597938144331</v>
+        <v>1.2604166666666667</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:5">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D14B6F-83F1-4F99-A63B-7E508B0E251F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688664AA-D895-476C-BE01-9AFF4440F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -683,6 +683,19 @@
     <t>　ー　物理挙動</t>
     <rPh sb="3" eb="7">
       <t>ブツリキョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ー　球とマップの当たり判定</t>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1153,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1194,8 +1207,8 @@
         <v>34</v>
       </c>
       <c r="H2">
-        <f>SUM(C3:C83)</f>
-        <v>156</v>
+        <f>SUM(C3:C84)</f>
+        <v>160.5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1213,8 +1226,8 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <f>SUMIF(E3:E83,"完了",C3:C83)</f>
-        <v>35</v>
+        <f>SUMIF(E3:E84,"完了",C3:C84)</f>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1241,22 +1254,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.5217391304347827</v>
+        <v>1.5185185185185186</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.1666666666666667</v>
+        <v>1.1388888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1292,7 +1305,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45595</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1395,19 +1408,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.1842105263157894</v>
+        <v>3.5147058823529411</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.3725490196078431</v>
+        <v>2.6555555555555554</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1432,19 +1445,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.0862068965517242</v>
+        <v>2.2129629629629628</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K15" ca="1" si="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.5316455696202531</v>
+        <v>1.6369863013698631</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1469,19 +1482,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.7536231884057971</v>
+        <v>1.8384615384615384</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.2604166666666667</v>
+        <v>1.3277777777777777</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1504,26 +1517,28 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>3</v>
+      <c r="C17" s="10">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>8</v>
@@ -1531,68 +1546,70 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
       <c r="E21" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C23" s="11">
         <v>4</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
@@ -1601,10 +1618,10 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="9" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C25" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
@@ -1613,10 +1630,10 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
@@ -1625,10 +1642,10 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C27" s="9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
@@ -1636,47 +1653,47 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C29" s="11">
         <v>4</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="9" t="s">
+    <row r="30" spans="2:5">
+      <c r="B30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <v>2</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="11">
-        <v>4</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="11" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C31" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
@@ -1685,10 +1702,10 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C32" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
@@ -1696,20 +1713,20 @@
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="B33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="11">
+        <v>8</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="9" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C34" s="9">
         <v>0.5</v>
@@ -1721,10 +1738,10 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C35" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
@@ -1732,60 +1749,60 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C37" s="11">
         <v>4</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="10" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C39" s="12">
         <v>20</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="10" t="s">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
@@ -1797,7 +1814,7 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="9">
         <v>1</v>
@@ -1808,30 +1825,28 @@
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="B43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10">
-        <v>1</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" s="10">
         <v>1</v>
@@ -1845,7 +1860,7 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="10">
         <v>1</v>
@@ -1859,13 +1874,13 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="10" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C47" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D47" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>8</v>
@@ -1873,84 +1888,86 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="10">
-        <v>6</v>
-      </c>
-      <c r="D49" s="10">
-        <v>6</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C50" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D50" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="9">
-        <v>1</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="10">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10">
-        <v>1</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="9">
-        <v>2</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
@@ -1959,10 +1976,10 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
@@ -1970,28 +1987,28 @@
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="9">
-        <v>1</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="9">
         <v>1</v>
@@ -2003,7 +2020,7 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="9">
         <v>1</v>
@@ -2015,7 +2032,7 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="9">
         <v>1</v>
@@ -2026,28 +2043,28 @@
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="9" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C63" s="9">
         <v>0.5</v>
@@ -2059,7 +2076,7 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="9">
         <v>0.5</v>
@@ -2071,42 +2088,41 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="9">
+        <v>2</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="9">
         <v>0.5</v>
@@ -2119,22 +2135,23 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
@@ -2143,7 +2160,7 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71" s="9">
         <v>2</v>
@@ -2154,28 +2171,28 @@
       </c>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="9">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="9">
-        <v>1</v>
-      </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="9">
         <v>1</v>
@@ -2187,7 +2204,7 @@
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" s="9">
         <v>1</v>
@@ -2198,52 +2215,52 @@
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C77" s="13">
         <v>4</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="11" t="s">
+      <c r="D77" s="13"/>
+      <c r="E77" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C78" s="11">
         <v>6</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="10" t="s">
+      <c r="D78" s="11"/>
+      <c r="E78" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="9">
-        <v>1</v>
-      </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" s="9">
         <v>1</v>
@@ -2254,32 +2271,32 @@
       </c>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="9">
+        <v>1</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C82" s="11">
         <v>4</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C82" s="9">
-        <v>2</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C83" s="9">
         <v>2</v>
@@ -2290,7 +2307,16 @@
       </c>
     </row>
     <row r="84" spans="2:5">
-      <c r="D84" s="2"/>
+      <c r="B84" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="9">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="2:5">
       <c r="D85" s="2"/>
@@ -2300,6 +2326,9 @@
     </row>
     <row r="87" spans="2:5">
       <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="D88" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688664AA-D895-476C-BE01-9AFF4440F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED18689D-51F8-480C-984A-0AEEECEAE82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(E3:E84,"完了",C3:C84)</f>
-        <v>41</v>
+        <v>42.5</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.5185185185185186</v>
+        <v>1.5740740740740742</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.1388888888888888</v>
+        <v>1.1805555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.5147058823529411</v>
+        <v>3.4705882352941178</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.6555555555555554</v>
+        <v>2.6222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.2129629629629628</v>
+        <v>2.1851851851851851</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K15" ca="1" si="1">_xlfn.DAYS(H14,$H$6)</f>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.6369863013698631</v>
+        <v>1.6164383561643836</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.8384615384615384</v>
+        <v>1.8153846153846154</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.3277777777777777</v>
+        <v>1.3111111111111111</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1605,15 +1605,17 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>3</v>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -1653,26 +1655,26 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="10">
         <v>0.5</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>3</v>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>4</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED18689D-51F8-480C-984A-0AEEECEAE82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F331FDC5-B1B4-47F9-91F1-B232974B6021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(E3:E84,"完了",C3:C84)</f>
-        <v>42.5</v>
+        <v>46.5</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.5740740740740742</v>
+        <v>1.6607142857142858</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.1805555555555556</v>
+        <v>1.2567567567567568</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45601</v>
+        <v>45602</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1408,19 +1408,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.4705882352941178</v>
+        <v>3.4545454545454546</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.6222222222222222</v>
+        <v>2.5909090909090908</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1445,19 +1445,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.1851851851851851</v>
+        <v>2.1509433962264151</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K15" ca="1" si="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>73</v>
+        <f ca="1">_xlfn.DAYS(H14,$H$6)</f>
+        <v>72</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.6164383561643836</v>
+        <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.8153846153846154</v>
+        <v>1.78125</v>
       </c>
       <c r="K15">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <f t="shared" ref="K14:K15" ca="1" si="1">_xlfn.DAYS(H15,$H$6)</f>
+        <v>89</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.3111111111111111</v>
+        <v>1.2808988764044944</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1619,15 +1619,15 @@
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="10">
         <v>2</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>3</v>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1679,15 +1679,15 @@
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>3</v>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:5">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F331FDC5-B1B4-47F9-91F1-B232974B6021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC92C017-9973-40B1-8A7B-7464530BA0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.6607142857142858</v>
+        <v>1.603448275862069</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.2567567567567568</v>
+        <v>1.2236842105263157</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45602</v>
+        <v>45603</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1408,19 +1408,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.4545454545454546</v>
+        <v>3.5625</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.5909090909090908</v>
+        <v>2.6511627906976742</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1445,19 +1445,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.1509433962264151</v>
+        <v>2.1923076923076925</v>
       </c>
       <c r="K14">
         <f ca="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.5833333333333333</v>
+        <v>1.6056338028169015</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.78125</v>
+        <v>1.8095238095238095</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K14:K15" ca="1" si="1">_xlfn.DAYS(H15,$H$6)</f>
-        <v>89</v>
+        <f t="shared" ref="K15" ca="1" si="1">_xlfn.DAYS(H15,$H$6)</f>
+        <v>88</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.2808988764044944</v>
+        <v>1.2954545454545454</v>
       </c>
     </row>
     <row r="16" spans="1:12">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC92C017-9973-40B1-8A7B-7464530BA0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16CA99E-F8EC-4FB6-B277-656A997CF2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(E3:E84,"完了",C3:C84)</f>
-        <v>46.5</v>
+        <v>49.5</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.603448275862069</v>
+        <v>1.65</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.2236842105263157</v>
+        <v>1.2692307692307692</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45603</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1408,19 +1408,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.5625</v>
+        <v>3.5806451612903225</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.6511627906976742</v>
+        <v>2.6428571428571428</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1445,19 +1445,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.1923076923076925</v>
+        <v>2.1764705882352939</v>
       </c>
       <c r="K14">
         <f ca="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.6056338028169015</v>
+        <v>1.5857142857142856</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.8095238095238095</v>
+        <v>1.7903225806451613</v>
       </c>
       <c r="K15">
         <f t="shared" ref="K15" ca="1" si="1">_xlfn.DAYS(H15,$H$6)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.2954545454545454</v>
+        <v>1.2758620689655173</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1631,27 +1631,27 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>3</v>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="10">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>3</v>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:5">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16CA99E-F8EC-4FB6-B277-656A997CF2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967D7E66-D831-498E-9727-95584EF30106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5535" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.65</v>
+        <v>1.596774193548387</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.2692307692307692</v>
+        <v>1.1785714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45604</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1408,19 +1408,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.5806451612903225</v>
+        <v>3.7</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.6428571428571428</v>
+        <v>2.8461538461538463</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1445,19 +1445,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.1764705882352939</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K14">
         <f ca="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.5857142857142856</v>
+        <v>1.6567164179104477</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.7903225806451613</v>
+        <v>1.819672131147541</v>
       </c>
       <c r="K15">
         <f t="shared" ref="K15" ca="1" si="1">_xlfn.DAYS(H15,$H$6)</f>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.2758620689655173</v>
+        <v>1.3214285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:12">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967D7E66-D831-498E-9727-95584EF30106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779244FE-D5D5-4C64-856E-06CFD6B43370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5535" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -1168,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779244FE-D5D5-4C64-856E-06CFD6B43370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C1A25B-D056-4285-A3A9-0F70CCB3B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5535" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="F31" sqref="F31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(E3:E84,"完了",C3:C84)</f>
-        <v>49.5</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.596774193548387</v>
+        <v>1.6875</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.1785714285714286</v>
+        <v>1.2558139534883721</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45607</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1408,19 +1408,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.7</v>
+        <v>3.6724137931034484</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.8461538461538463</v>
+        <v>2.8026315789473686</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1445,19 +1445,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.2200000000000002</v>
+        <v>2.1734693877551021</v>
       </c>
       <c r="K14">
         <f ca="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.6567164179104477</v>
+        <v>1.6136363636363635</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.819672131147541</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="K15">
         <f t="shared" ref="K15" ca="1" si="1">_xlfn.DAYS(H15,$H$6)</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.3214285714285714</v>
+        <v>1.2831325301204819</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1593,15 +1593,15 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>4</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>3</v>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -1727,15 +1727,15 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>0.5</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>3</v>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:5">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C1A25B-D056-4285-A3A9-0F70CCB3B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041C1CF8-973C-4D29-90F9-C71FCB8E9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041C1CF8-973C-4D29-90F9-C71FCB8E9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6743A68B-A352-4333-AA04-853BD35067C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(E3:E84,"完了",C3:C84)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.6875</v>
+        <v>1.7058823529411764</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.2558139534883721</v>
+        <v>1.288888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45608</v>
+        <v>45610</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1408,19 +1408,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.6724137931034484</v>
+        <v>3.7962962962962963</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.8026315789473686</v>
+        <v>2.8472222222222223</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1445,19 +1445,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.1734693877551021</v>
+        <v>2.1808510638297873</v>
       </c>
       <c r="K14">
         <f ca="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.6136363636363635</v>
+        <v>1.6015625</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1482,19 +1482,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.7749999999999999</v>
+        <v>1.7672413793103448</v>
       </c>
       <c r="K15">
         <f t="shared" ref="K15" ca="1" si="1">_xlfn.DAYS(H15,$H$6)</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.2831325301204819</v>
+        <v>1.2654320987654322</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1691,15 +1691,15 @@
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>4</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>3</v>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:5">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6743A68B-A352-4333-AA04-853BD35067C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F088073B-175C-4699-826E-B75A0C897BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -863,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -886,6 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1168,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1212,22 +1213,24 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>3</v>
+      <c r="C3" s="10">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H3">
         <f>SUMIF(E3:E84,"完了",C3:C84)</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1254,22 +1257,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.7058823529411764</v>
+        <v>1.7073170731707317</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.288888888888889</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1305,7 +1308,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45610</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1408,19 +1411,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>3.7962962962962963</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>2.8472222222222223</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1445,19 +1448,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.1808510638297873</v>
+        <v>2.2625000000000002</v>
       </c>
       <c r="K14">
         <f ca="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.6015625</v>
+        <v>1.7075471698113207</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1482,19 +1485,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.7672413793103448</v>
+        <v>1.7745098039215685</v>
       </c>
       <c r="K15">
         <f t="shared" ref="K15" ca="1" si="1">_xlfn.DAYS(H15,$H$6)</f>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.2654320987654322</v>
+        <v>1.2928571428571429</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1939,15 +1942,17 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="9">
-        <v>1</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
-        <v>3</v>
+      <c r="C52" s="10">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -2261,51 +2266,59 @@
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="9">
-        <v>1</v>
-      </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>3</v>
+      <c r="C80" s="22">
+        <v>1</v>
+      </c>
+      <c r="D80" s="22">
+        <v>1</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="9">
-        <v>1</v>
-      </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>3</v>
+      <c r="C81" s="22">
+        <v>1</v>
+      </c>
+      <c r="D81" s="22">
+        <v>1</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="22">
         <v>4</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>3</v>
+      <c r="D82" s="22">
+        <v>3</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="22">
         <v>2</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>3</v>
+      <c r="D83" s="22">
+        <v>2</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="2:5">

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F088073B-175C-4699-826E-B75A0C897BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74B9D3-2FD0-4D85-B5AE-6452DC109782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>

--- a/コスト表.xlsx
+++ b/コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347025\Desktop\MeteorFighters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74B9D3-2FD0-4D85-B5AE-6452DC109782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB79C5-BA45-4DAC-A2D9-002408BF3A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アルファ" sheetId="1" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(E3:E84,"完了",C3:C84)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
         <v>100</v>
@@ -1257,22 +1257,22 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
       </c>
       <c r="J4" s="4">
         <f ca="1" xml:space="preserve"> H3 / H4</f>
-        <v>1.7073170731707317</v>
+        <v>1.5777777777777777</v>
       </c>
       <c r="K4" s="3">
         <f ca="1">_xlfn.DAYS(H6,H5)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L4" s="4">
         <f ca="1">H3/K4</f>
-        <v>1.25</v>
+        <v>1.1833333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
+        <v>45625</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1411,19 +1411,19 @@
       </c>
       <c r="I13" s="3">
         <f ca="1">NETWORKDAYS(TODAY(),H13)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J13" s="4">
         <f ca="1">($H$2 - $H$3) / I13</f>
-        <v>4.5250000000000004</v>
+        <v>5.59375</v>
       </c>
       <c r="K13">
         <f ca="1">_xlfn.DAYS(H13,$H$6)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L13" s="4">
         <f ca="1">($H$2 - $H$3) / K13</f>
-        <v>3.62</v>
+        <v>4.2619047619047619</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1448,19 +1448,19 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ref="I14:I15" ca="1" si="0">NETWORKDAYS(TODAY(),H14)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J14" s="4">
         <f ca="1">($H$2 - $H$3) / I14</f>
-        <v>2.2625000000000002</v>
+        <v>2.4861111111111112</v>
       </c>
       <c r="K14">
         <f ca="1">_xlfn.DAYS(H14,$H$6)</f>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L14" s="4">
         <f ca="1">($H$2 - $H$3) / K14</f>
-        <v>1.7075471698113207</v>
+        <v>1.8265306122448979</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1485,19 +1485,19 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">($H$2 - $H$3) / I15</f>
-        <v>1.7745098039215685</v>
+        <v>1.9042553191489362</v>
       </c>
       <c r="K15">
         <f t="shared" ref="K15" ca="1" si="1">_xlfn.DAYS(H15,$H$6)</f>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L15" s="4">
         <f ca="1">($H$2 - $H$3) / K15</f>
-        <v>1.2928571428571429</v>
+        <v>1.356060606060606</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1742,15 +1742,15 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <v>0.5</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>3</v>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1994,15 +1994,15 @@
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="10">
         <v>0.5</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>3</v>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="2:5">
